--- a/AnalysisResult/VIFresultIn5years.xlsx
+++ b/AnalysisResult/VIFresultIn5years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBH\OneDrive - University College London\#CASA0007__QuantitativeMethods\ASSESSMENT\WrittenInvestigation\CASA0007A2QMBohaoSu\AnalysisResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5262BC6F-8F67-4187-95ED-BA7A87669AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC46BCC9-462E-427D-B8B3-5C34FCD951CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0D674F8-55FE-4E12-AA42-4A338FED8E80}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Finance_Secure</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>Connections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,11 +286,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -302,15 +305,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$I$8</c:f>
+              <c:f>Sheet1!$E$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6288352878621299</c:v>
                 </c:pt>
@@ -324,6 +330,9 @@
                   <c:v>1.5274131180495201</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.3366192097619201</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.3366192097619201</c:v>
                 </c:pt>
               </c:numCache>
@@ -418,11 +427,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -438,15 +446,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$I$9</c:f>
+              <c:f>Sheet1!$E$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.4967282951658598</c:v>
                 </c:pt>
@@ -460,6 +471,9 @@
                   <c:v>1.5080081626411901</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.52603909926181</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.52603909926181</c:v>
                 </c:pt>
               </c:numCache>
@@ -554,11 +568,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -574,15 +587,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$I$10</c:f>
+              <c:f>Sheet1!$E$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.0592865603280099</c:v>
                 </c:pt>
@@ -596,6 +612,9 @@
                   <c:v>1.6486032953173</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.3354285428302699</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.3354285428302699</c:v>
                 </c:pt>
               </c:numCache>
@@ -690,11 +709,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -710,15 +728,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$11:$I$11</c:f>
+              <c:f>Sheet1!$E$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.73532063158282</c:v>
                 </c:pt>
@@ -732,6 +753,9 @@
                   <c:v>1.2758648784545199</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.10263653463169</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.10263653463169</c:v>
                 </c:pt>
               </c:numCache>
@@ -826,11 +850,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -846,15 +869,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$I$12</c:f>
+              <c:f>Sheet1!$E$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.1522489465704702</c:v>
                 </c:pt>
@@ -868,6 +894,9 @@
                   <c:v>1.64070662771991</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.5767543937252699</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.5767543937252699</c:v>
                 </c:pt>
               </c:numCache>
@@ -962,11 +991,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -982,15 +1010,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$I$13</c:f>
+              <c:f>Sheet1!$E$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.2774984417714399</c:v>
                 </c:pt>
@@ -1004,6 +1035,9 @@
                   <c:v>1.2133564986337899</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.1328565726091999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.1328565726091999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1100,11 +1134,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$E$7:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+            <c:strRef>
+              <c:f>Sheet1!$E$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -1120,15 +1153,18 @@
                 <c:pt idx="4">
                   <c:v>2022</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v>18_22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$I$14</c:f>
+              <c:f>Sheet1!$E$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.8285925879140899</c:v>
                 </c:pt>
@@ -1142,6 +1178,9 @@
                   <c:v>1.4097726079944899</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.0864704802937399</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0864704802937399</c:v>
                 </c:pt>
               </c:numCache>
@@ -2240,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B58B28-F428-4099-873C-04410C046815}">
-  <dimension ref="D7:I14"/>
+  <dimension ref="D7:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2290,7 @@
     <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>2018</v>
       </c>
@@ -2267,8 +2306,11 @@
       <c r="I7">
         <v>2022</v>
       </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>0</v>
       </c>
@@ -2287,8 +2329,11 @@
       <c r="I8">
         <v>1.3366192097619201</v>
       </c>
+      <c r="J8">
+        <v>1.3366192097619201</v>
+      </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>1</v>
       </c>
@@ -2307,8 +2352,11 @@
       <c r="I9">
         <v>1.52603909926181</v>
       </c>
+      <c r="J9">
+        <v>1.52603909926181</v>
+      </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>2</v>
       </c>
@@ -2327,8 +2375,11 @@
       <c r="I10">
         <v>1.3354285428302699</v>
       </c>
+      <c r="J10">
+        <v>1.3354285428302699</v>
+      </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>3</v>
       </c>
@@ -2347,8 +2398,11 @@
       <c r="I11">
         <v>1.10263653463169</v>
       </c>
+      <c r="J11">
+        <v>1.10263653463169</v>
+      </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>4</v>
       </c>
@@ -2367,8 +2421,11 @@
       <c r="I12">
         <v>1.5767543937252699</v>
       </c>
+      <c r="J12">
+        <v>1.5767543937252699</v>
+      </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>5</v>
       </c>
@@ -2387,8 +2444,11 @@
       <c r="I13">
         <v>1.1328565726091999</v>
       </c>
+      <c r="J13">
+        <v>1.1328565726091999</v>
+      </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>6</v>
       </c>
@@ -2405,6 +2465,9 @@
         <v>1.4097726079944899</v>
       </c>
       <c r="I14">
+        <v>1.0864704802937399</v>
+      </c>
+      <c r="J14">
         <v>1.0864704802937399</v>
       </c>
     </row>
